--- a/02_MasterWifoMannheim/99_Backup/Course47.xlsx
+++ b/02_MasterWifoMannheim/99_Backup/Course47.xlsx
@@ -1,139 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mailunimannheimde-my.sharepoint.com/personal/pstapf_mail_uni-mannheim_de/Documents/Uni/Master/Masterarbeit/Course_Suggestion/02_MasterWifoMannheim/03_Courses/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="11_2B59D2BFD3D0DB4B639A2011593D90F06C03FEA4" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F09302B3-5DE1-46A1-B5E0-DBF968407903}"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
-  <si>
-    <t>Module</t>
-  </si>
-  <si>
-    <t>ACC 540 Financial Statement Analysis &amp; Equity Valuation</t>
-  </si>
-  <si>
-    <t>Contents</t>
-  </si>
-  <si>
-    <t>This course teaches financial statement analysis in the context of equity valuation. The first part covers common tools of financial statements analyses (accounting analysis, ratio analysis, analysis of narratives) and the derivation of inputs into valuation models. this knowledge, techniques for a consistent identification of free cash flows and abnormal earnings from integrated pro-forma financial statements (financial modelling and business planning) as well as the estimation of required rates of returns from capital market-based data are discussed. In the second part, methods for equity and asset valuation, in particular the cash-flow based earnings growth (AEG) models are covered. applications of fundamental analysis and valuation methods for equity investments and in Mergers &amp; Acquisitions (M&amp;A, purchase price allocation and the valuation of intangible assets).</t>
-  </si>
-  <si>
-    <t>Learning outcomes</t>
-  </si>
-  <si>
-    <t>The students should get an in-depth understanding of the approaches and methods available for analyzing financial statements, preparing pro-forma financial statements in financial modelling and their application for valuing equity, firms and assets. They should on the one hand understand both the theoretical constructs, assumptions, and limitations behind those concepts, but should, on the other hand, also be capable to implement them (computer-based) in practice. The student’s learning will be supplemented by the presentation of case-studies from valuation practice.</t>
-  </si>
-  <si>
-    <t>Prerequisites</t>
-  </si>
-  <si>
-    <t>Obligatory registrationFurther Information on registration</t>
-  </si>
-  <si>
-    <t>Courses Hours per week Self-study Lecture 2 6 Case Studies 2 2 Exercise Session 2 2</t>
-  </si>
-  <si>
-    <t>ECTS</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>Form of assessment</t>
-  </si>
-  <si>
-    <t>Case study presentation (25%) and written exam (90 minutes, 75%)</t>
-  </si>
-  <si>
-    <t>Preliminary course work -</t>
-  </si>
-  <si>
-    <t>Lecturer/Person in charge</t>
-  </si>
-  <si>
-    <t>Prof. Dr. Holger Daske (Lecture), Dr. Steffen Wagner (Case Studies)</t>
-  </si>
-  <si>
-    <t>Duration of module</t>
-  </si>
-  <si>
-    <t>1 semester</t>
-  </si>
-  <si>
-    <t>Offering</t>
-  </si>
-  <si>
-    <t>Spring semester</t>
-  </si>
-  <si>
-    <t>Language</t>
-  </si>
-  <si>
-    <t>English</t>
-  </si>
-  <si>
-    <t>Program-specific educational goals</t>
-  </si>
-  <si>
-    <t>Grade</t>
-  </si>
-  <si>
-    <t>graded</t>
-  </si>
-  <si>
-    <t>Range of application</t>
-  </si>
-  <si>
-    <t>M.Sc. MMM, M.Sc. Bus. Edu., M.Sc. Bus. Inf., M.Sc. Econ., LL.M.</t>
-  </si>
-  <si>
-    <t>Not Taken</t>
-  </si>
-  <si>
-    <t>ACC 532</t>
-  </si>
-  <si>
-    <t>Accounting and Taxation (AAT)</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -148,43 +46,93 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -472,145 +420,213 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:B18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1">
+    <row r="1">
+      <c r="A1" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B1" s="1">
+      <c r="B1" s="1" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>27</v>
-      </c>
-      <c r="B6" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>16</v>
-      </c>
-      <c r="B13" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>18</v>
-      </c>
-      <c r="B14" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>20</v>
-      </c>
-      <c r="B15" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>25</v>
-      </c>
-      <c r="B18" t="s">
-        <v>26</v>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Module</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>ACC 540 Financial Statement Analysis &amp; Equity Valuation</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Contents</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>This course teaches financial statement analysis in the context of equity valuation. The first part covers common tools of financial statements analyses (accounting analysis, ratio analysis, analysis of narratives) and the derivation of inputs into valuation models. this knowledge, techniques for a consistent identification of free cash flows and abnormal earnings from integrated pro-forma financial statements (financial modelling and business planning) as well as the estimation of required rates of returns from capital market-based data are discussed. In the second part, methods for equity and asset valuation, in particular the cash-flow based earnings growth (AEG) models are covered. applications of fundamental analysis and valuation methods for equity investments and in Mergers &amp; Acquisitions (M&amp;A, purchase price allocation and the valuation of intangible assets).</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Learning outcomes</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>The students should get an in-depth understanding of the approaches and methods available for analyzing financial statements, preparing pro-forma financial statements in financial modelling and their application for valuing equity, firms and assets. They should on the one hand understand both the theoretical constructs, assumptions, and limitations behind those concepts, but should, on the other hand, also be capable to implement them (computer-based) in practice. The student’s learning will be supplemented by the presentation of case-studies from valuation practice.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Prerequisites</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Accounting and Taxation (AAT)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Not Taken</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>ACC 532</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Obligatory registrationFurther Information on registration</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Courses Hours per week Self-study Lecture 2 6 Case Studies 2 2 Exercise Session 2 2</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>ECTS</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Form of assessment</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Case study presentation (25%) and written exam (90 minutes, 75%)</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Preliminary course work -</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Lecturer/Person in charge</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Prof. Dr. Holger Daske (Lecture), Dr. Steffen Wagner (Case Studies)</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Duration of module</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>1 semester</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Offering</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>SSS</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Language</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>English</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Program-specific educational goals</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Grade</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>graded</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Range of application</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>M.Sc. MMM, M.Sc. Bus. Edu., M.Sc. Bus. Inf., M.Sc. Econ., LL.M.</t>
+        </is>
       </c>
     </row>
   </sheetData>
